--- a/public/Plantilla7.xlsx
+++ b/public/Plantilla7.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omaro\Documents\PLANTILLAS_EGRESADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\hg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC21B54-DB57-497F-941E-929037544CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C389E9E1-88D2-48CC-A509-00A2F586255C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Periodo</t>
   </si>
@@ -65,19 +64,16 @@
     <t>SEP-DIC</t>
   </si>
   <si>
-    <t>Mecatrónica</t>
-  </si>
-  <si>
     <t>ENE-ABR</t>
   </si>
   <si>
-    <t>Negocios</t>
+    <t>Sistemas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC323E76-C400-4BBE-B666-84A3D59CCDD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +461,7 @@
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -487,13 +483,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
